--- a/artefacts/dataTrusted.xlsx
+++ b/artefacts/dataTrusted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomek\Desktop\wagesInPoland2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomek\Desktop\wagesInPoland2021\artefacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED93A7A-8A4D-4F38-A859-257D186845CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1D4807-AA1E-45C0-A292-F12AAB629461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D1B1FA3-0245-445B-8E9E-76C89E1928B0}"/>
   </bookViews>
@@ -96,7 +96,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,6 +113,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -183,6 +189,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -499,18 +508,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A954CD47-3BF9-41BE-827C-EE6AC386CC19}">
-  <dimension ref="A1:I936"/>
+  <dimension ref="A1:R936"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K931" sqref="K931"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
     <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +556,17 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -568,7 +595,7 @@
         <v>3.6888794541139363</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -597,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -626,7 +653,7 @@
         <v>1.6094379124341003</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -657,7 +684,7 @@
         <v>1.791759469228055</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -686,7 +713,7 @@
         <v>3.4339872044851463</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -717,7 +744,7 @@
         <v>3.2188758248682006</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -748,7 +775,7 @@
         <v>1.6094379124341003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -779,7 +806,7 @@
         <v>3.3322045101752038</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -810,7 +837,7 @@
         <v>3.5835189384561099</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -839,7 +866,7 @@
         <v>1.791759469228055</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -870,7 +897,7 @@
         <v>2.6390573296152584</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -899,7 +926,7 @@
         <v>2.7725887222397811</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -928,7 +955,7 @@
         <v>2.6390573296152584</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -957,7 +984,7 @@
         <v>3.4339872044851463</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>0</v>
       </c>
